--- a/veri3.xlsx
+++ b/veri3.xlsx
@@ -381,44 +381,44 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-0.44</v>
+        <v>0.96</v>
       </c>
       <c r="B2">
-        <v>1.17</v>
+        <v>-0.62</v>
       </c>
       <c r="C2">
-        <v>1.11</v>
+        <v>-0.88</v>
       </c>
       <c r="D2">
-        <v>0.99</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.54</v>
+        <v>-1.18</v>
       </c>
       <c r="B3">
-        <v>-1.5</v>
+        <v>2.39</v>
       </c>
       <c r="C3">
-        <v>1.64</v>
+        <v>-1.95</v>
       </c>
       <c r="D3">
-        <v>0.43</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1.14</v>
+        <v>-2.3</v>
       </c>
       <c r="B4">
-        <v>-1.12</v>
+        <v>0.19</v>
       </c>
       <c r="C4">
-        <v>0.1</v>
+        <v>-0.77</v>
       </c>
       <c r="D4">
-        <v>1.26</v>
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>

--- a/veri3.xlsx
+++ b/veri3.xlsx
@@ -381,44 +381,44 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.96</v>
+        <v>0.24</v>
       </c>
       <c r="B2">
-        <v>-0.62</v>
+        <v>-0.75</v>
       </c>
       <c r="C2">
-        <v>-0.88</v>
+        <v>0.01</v>
       </c>
       <c r="D2">
-        <v>-1.45</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-1.18</v>
+        <v>-1.66</v>
       </c>
       <c r="B3">
-        <v>2.39</v>
+        <v>-0.2</v>
       </c>
       <c r="C3">
-        <v>-1.95</v>
+        <v>0.38</v>
       </c>
       <c r="D3">
-        <v>-0.18</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-2.3</v>
+        <v>1.57</v>
       </c>
       <c r="B4">
-        <v>0.19</v>
+        <v>0.04</v>
       </c>
       <c r="C4">
-        <v>-0.77</v>
+        <v>0.57</v>
       </c>
       <c r="D4">
-        <v>0.11</v>
+        <v>-0.4</v>
       </c>
     </row>
   </sheetData>

--- a/veri3.xlsx
+++ b/veri3.xlsx
@@ -381,44 +381,44 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.24</v>
+        <v>0.83</v>
       </c>
       <c r="B2">
-        <v>-0.75</v>
+        <v>0.71</v>
       </c>
       <c r="C2">
-        <v>0.01</v>
+        <v>-1.61</v>
       </c>
       <c r="D2">
-        <v>0.86</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-1.66</v>
+        <v>0.55</v>
       </c>
       <c r="B3">
-        <v>-0.2</v>
+        <v>-0.79</v>
       </c>
       <c r="C3">
-        <v>0.38</v>
+        <v>0.12</v>
       </c>
       <c r="D3">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1.57</v>
+        <v>0.48</v>
       </c>
       <c r="B4">
-        <v>0.04</v>
+        <v>-1.11</v>
       </c>
       <c r="C4">
-        <v>0.57</v>
+        <v>-2.36</v>
       </c>
       <c r="D4">
-        <v>-0.4</v>
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
